--- a/biology/Origine et évolution du vivant/Histoire_évolutive_des_Équidés/Histoire_évolutive_des_Équidés.xlsx
+++ b/biology/Origine et évolution du vivant/Histoire_évolutive_des_Équidés/Histoire_évolutive_des_Équidés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+          <t>Histoire_évolutive_des_Équidés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Équidés (Equidae) recouvre toutes les espèces de la famille du cheval domestique, les chevaux sauvages, les ânes et les zèbres.
 Cette famille est issue d'une différenciation au sein des Périssodactyles de laquelle sont issus également les Rhinocérotidés et Tapiridés au cours de l'Éocène, il y a 55 Ma. Petit à petit, les membres de la branche Equidae évoluèrent différemment selon les régions où ils vivaient et les climats auxquels ils étaient confrontés.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+          <t>Histoire_évolutive_des_Équidés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,48 @@
           <t>Histoire évolutive</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Néogène, les continents actuels étaient formés et occupaient à peu de chose près leur emplacement actuel ; le continent eurasiatique n'était cependant pas en contact avec l'Afrique. Des fossiles des mêmes genres ont été trouvés en Eurasie et en Amérique du Nord, certaines de part et d'autre du détroit de Béring ; un passage entre les deux appelé Béringie a en effet existé jusqu'il y a 11 600 ans environ. Classiquement, on considère que les Équidés modernes seraient apparus il y a 5 Ma[1], en trois étapes successives, les deux premières au moins étant originaires d'Amérique du Nord.
-Systématique
-Les principaux groupes évolutifs sont décrits ci-dessous par phylogénie[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Néogène, les continents actuels étaient formés et occupaient à peu de chose près leur emplacement actuel ; le continent eurasiatique n'était cependant pas en contact avec l'Afrique. Des fossiles des mêmes genres ont été trouvés en Eurasie et en Amérique du Nord, certaines de part et d'autre du détroit de Béring ; un passage entre les deux appelé Béringie a en effet existé jusqu'il y a 11 600 ans environ. Classiquement, on considère que les Équidés modernes seraient apparus il y a 5 Ma, en trois étapes successives, les deux premières au moins étant originaires d'Amérique du Nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principaux groupes évolutifs sont décrits ci-dessous par phylogénie :
 o Hippomorpha (Wood, 1937)
 |--o Pachynolophoidea (éteint) (Pavlow, 1888)
 |  `-- Pachynolophidae (éteint) (Pavlow, 1888)
@@ -535,25 +584,203 @@
             |
             `-- Equus
 L'évolution dans cette famille s'est faite autant par changement progressif d'une fréquence du gène dans la population entière (anagénèse) que par différenciations adaptatives et spéciations en branches distinctes (cladogénèse). Les différentes espèces ancestrales ont pu également bénéficier d'une convergence évolutive, ce qui complique l'analyse des fossiles. Enfin, ponctuellement, les adaptations ont pu être en opposition d'une époque à l'autre (taille, poids…). Ce n'est que sur de longues périodes que l'on peut identifier clairement les évolutions permanentes.
-Équidés précoces
-Les Équidés les plus primitifs découverts sont du genre Hyracotherium (anciennement appelé Eohippus). Certains auteurs ne les considèrent pas encore comme faisant partie des Équidés, d'autres différencient ces deux genres. Ils disposent des caractéristiques de ce qu'allaient devenir les Équidés modernes. Dotés de quatre doigts, ils vivaient dans les forêts, durant l'Éocène, il y a 60 Ma. Ils évoluaient principalement sur ce qui allait être l'Amérique du Nord, mais certains ont migré vers le Vieux Monde via le détroit de Béring[3]. L'Hyracotherium était petit — environ 20 cm — et trapu. Il se nourrissait de feuilles et menait une vie solitaire dans les sous-bois. Il va progressivement évoluer en se spécialisant dans la course, grandir et acquérir un cerveau semblable à celui des équidés modernes. On a appelé Orohippus l'étape évolutive vers 45 à 42 Ma des sept espèces découvertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Équidés précoces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Équidés les plus primitifs découverts sont du genre Hyracotherium (anciennement appelé Eohippus). Certains auteurs ne les considèrent pas encore comme faisant partie des Équidés, d'autres différencient ces deux genres. Ils disposent des caractéristiques de ce qu'allaient devenir les Équidés modernes. Dotés de quatre doigts, ils vivaient dans les forêts, durant l'Éocène, il y a 60 Ma. Ils évoluaient principalement sur ce qui allait être l'Amérique du Nord, mais certains ont migré vers le Vieux Monde via le détroit de Béring. L'Hyracotherium était petit — environ 20 cm — et trapu. Il se nourrissait de feuilles et menait une vie solitaire dans les sous-bois. Il va progressivement évoluer en se spécialisant dans la course, grandir et acquérir un cerveau semblable à celui des équidés modernes. On a appelé Orohippus l'étape évolutive vers 45 à 42 Ma des sept espèces découvertes.
 D'autres genres semblent en être issus. En Amérique du Nord, Mesohippus, de la taille d'un grand chien, vivait dans le climat chaud et sec il y a 42 à 33 Ma. Il semble avoir coexisté pour un temps avec Miohippus (40 à 25 Ma), encore plus grand que le précédent. Miohippus va ensuite donner naissance à deux branches différentes sur ce continent dont plusieurs espèces migreront sur le continent eurasien. Ils se distinguent par leur face allongée.
-Du Miocène au Pliocène
-Les espèces de ces fossiles sont toutes considérées comme d'authentiques Équidés.
-Les Anchithériininés
-Kalobatippus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Du Miocène au Pliocène</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ces fossiles sont toutes considérées comme d'authentiques Équidés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les Anchithériininés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Kalobatippus
 Anchitherium, en Amérique du Nord et d'Europe à la Chine.
 Hypohippus, entre 17 et 11 Ma.
 Megahippus, entre 15 et 11 Ma.
 Sinohippus, en Amérique du Nord et Chine.
-Archaeohippus
-Equinae
-Parahippus
+Archaeohippus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Equinae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parahippus
 Puis vint Merychippus il y a 20 à 17 Ma, animal de 80 cm de haut. Les deux derniers doigts continuent de s'atrophier et c'est le premier équidé à se nourrir exclusivement d'herbe. Vers 13 Ma se distinguent deux types d'Équidés à traits morphologiques nettement distincts, les Hipparions et les Pliohippus.
 Les Hipparions se distinguent des Équidés modernes par leurs membres tridactyles et le dessin de l'émail sur les couronnes des molaires tandis que les Pliohippus, d'il y a 5 à 2 Ma, n'ont plus qu'un doigt. Ces derniers sont donc soupçonnés de partager un ancêtre avec les Equus plus récents, plutôt qu'avec les Hipparions. Les Pliohippus sont présents en Amérique du Sud, du Nord et en Eurasie. De cette branche commune d'Amérique du Nord émergent les Equus et les Dinohippus.
-Spéciation du genre Equus
-Le genre Equus est apparu il y a 4 à 5 Ma[1]. Sa taille atteint 125 à 135 cm. Ses yeux sont disposés sur les côtés pour détecter les prédateurs à de grandes distances. Le naseau, très ouvert, permet l'inspiration de grandes quantités d'air pour augmenter la vivacité et la rapidité[3].
-L'histoire récente des Équidés est mal connue. Nous ne savons pas en particulier quand a eu lieu la spéciation entre les ânes, les chevaux sauvages (Equus ferus), les zèbres et le cheval domestique (Equus caballus). Nous ne savons pas si les espèces domestiques (cheval ou âne) résultent d'une sélection opérée par l'homme ou si elles sont le fruit de la sélection naturelle. L'histoire du cheval domestique est beaucoup mieux connue depuis l'antiquité. Toutefois, une étude génétique, réalisée sur un fragment d'os de cheval vieux d'environ 735 000 ans trouvé au Yukon en 2003, a permis d'estimer l'apparition de l'ancêtre commun à tous les Équidés modernes à environ quatre millions d'années[4].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Histoire_évolutive_des_Équidés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_%C3%A9volutive_des_%C3%89quid%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Equinae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Spéciation du genre Equus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Equus est apparu il y a 4 à 5 Ma. Sa taille atteint 125 à 135 cm. Ses yeux sont disposés sur les côtés pour détecter les prédateurs à de grandes distances. Le naseau, très ouvert, permet l'inspiration de grandes quantités d'air pour augmenter la vivacité et la rapidité.
+L'histoire récente des Équidés est mal connue. Nous ne savons pas en particulier quand a eu lieu la spéciation entre les ânes, les chevaux sauvages (Equus ferus), les zèbres et le cheval domestique (Equus caballus). Nous ne savons pas si les espèces domestiques (cheval ou âne) résultent d'une sélection opérée par l'homme ou si elles sont le fruit de la sélection naturelle. L'histoire du cheval domestique est beaucoup mieux connue depuis l'antiquité. Toutefois, une étude génétique, réalisée sur un fragment d'os de cheval vieux d'environ 735 000 ans trouvé au Yukon en 2003, a permis d'estimer l'apparition de l'ancêtre commun à tous les Équidés modernes à environ quatre millions d'années.
 Cependant, le plus ancien squelette de cheval, Equus stenonis, a été daté de la fin du tertiaire en Europe de l'Ouest. Les scientifiques pensent ainsi qu'il est une évolution du Plesippus. Equus stenonis a ensuite évolué en deux branches, l'une étant plus lourde que l'autre, dont Equus scotti, de forme similaire et commun en Amérique, dont certaines évolutions sont devenues géantes. Ces espèces américaines se sont éteintes il y a 11 000 ans lors de l'extinction de la mégafaune américaine.
 </t>
         </is>
